--- a/statistics/HistoricalDistanceData/historical_distance/Q5004337-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q5004337-en.xlsx
@@ -34,24 +34,24 @@
     <t>Court Releases Recording Of Byron Smith Gunning Down Teens (EXPLICIT AUDIO)</t>
   </si>
   <si>
+    <t>Crime scene photos released from Byron Smith murder trial (PHOTOS)</t>
+  </si>
+  <si>
     <t>Minnesota Supreme Court to hear Byron Smith's appeal</t>
   </si>
   <si>
-    <t>Crime scene photos released from Byron Smith murder trial (PHOTOS)</t>
-  </si>
-  <si>
     <t>Trial set to begin for Minn. man who shot teens in his home</t>
   </si>
   <si>
     <t>2014-05-02T19:44:07UTC</t>
   </si>
   <si>
+    <t>2014-05-05T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2015-07-29T15:41:42UTC</t>
   </si>
   <si>
-    <t>2014-05-05T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2014-04-14T13:53:23UTC</t>
   </si>
   <si>
@@ -61,10 +61,10 @@
     <t>http://www.huffingtonpost.com/2014/05/02/byron-smith-audio_n_5255546.html</t>
   </si>
   <si>
+    <t>https://www.guns.com/news/2014/05/05/crime-scene-photos-released-from-byron-smith-murder-trial-photos</t>
+  </si>
+  <si>
     <t>https://www.brainerddispatch.com/news/3806415-minnesota-supreme-court-hear-byron-smiths-appeal</t>
-  </si>
-  <si>
-    <t>https://www.guns.com/news/2014/05/05/crime-scene-photos-released-from-byron-smith-murder-trial-photos</t>
   </si>
   <si>
     <t>http://www.cbsnews.com/news/trial-set-to-begins-for-minnesota-man-who-shot-teens-in-his-home/</t>
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>979</v>
+        <v>529</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -503,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>529</v>
+        <v>979</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
